--- a/excel/contrcat_10300.xlsx
+++ b/excel/contrcat_10300.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="検収台帳" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,54 +23,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>mshizuno</author>
-  </authors>
-  <commentList>
-    <comment ref="H8" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>mshizuno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-4/1.2は土日のため待機なし</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="78">
-  <si>
-    <t>H27年度台帳</t>
-    <rPh sb="3" eb="5">
-      <t>ネンド</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ダイチョウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>d</t>
     <phoneticPr fontId="4"/>
@@ -621,100 +575,13 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>10976</t>
-  </si>
-  <si>
-    <t>HAL0103-4</t>
-  </si>
-  <si>
-    <t>ｺﾊﾞﾔｼ ﾏｻｱｷ</t>
-  </si>
-  <si>
-    <t>小林　正明</t>
-  </si>
-  <si>
-    <t>日本コンピュータコンサルタント</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>派遣</t>
-  </si>
-  <si>
-    <t>麻生塾システム　再構築</t>
-  </si>
-  <si>
-    <t>正</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>○</t>
-  </si>
-  <si>
-    <t>翌々月11日</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>日本コンピュータコンサルタント</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>10978</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>HAL0149-3</t>
-  </si>
-  <si>
-    <t>ﾑﾗﾏﾂ ﾉﾌﾞｱｷ</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>村松　信明</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>日本自動化開発</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>準委任</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ＤＥＮＳＯ制御組込開発支援</t>
-    <rPh sb="5" eb="7">
-      <t>セイギョ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>クミコミ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シエン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ﾑﾗﾏﾂ ﾉﾌﾞｱｷ</t>
-  </si>
-  <si>
-    <t>契</t>
-  </si>
-  <si>
-    <t>B00351-10978</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>翌々月11日</t>
+    <t>年度台帳</t>
+    <rPh sb="0" eb="2">
+      <t>ネンド</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダイチョウ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -722,15 +589,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="6">
-    <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
+  <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="m/d"/>
-    <numFmt numFmtId="179" formatCode="[$-411]ge\.m\.d;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -783,21 +648,6 @@
       <sz val="9"/>
       <color indexed="10"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -858,7 +708,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1013,36 +863,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1058,7 +878,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1354,86 +1174,6 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="パーセント" xfId="3" builtinId="5"/>
@@ -1441,169 +1181,7 @@
     <cellStyle name="通貨" xfId="2" builtinId="7"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="41"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="41"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="41"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1912,18 +1490,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BB7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:55" s="29" customFormat="1" ht="18.75" customHeight="1">
+    <row r="1" spans="1:54" s="29" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1979,7 +1557,7 @@
       <c r="BA1" s="25"/>
       <c r="BB1" s="28"/>
     </row>
-    <row r="2" spans="1:55" s="29" customFormat="1" ht="18.75" customHeight="1">
+    <row r="2" spans="1:54" s="29" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="30"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -2026,7 +1604,7 @@
       <c r="BA2" s="48"/>
       <c r="BB2" s="51"/>
     </row>
-    <row r="3" spans="1:55" s="29" customFormat="1" ht="18.75" customHeight="1">
+    <row r="3" spans="1:54" s="29" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="30"/>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -2073,7 +1651,7 @@
       <c r="BA3" s="48"/>
       <c r="BB3" s="51"/>
     </row>
-    <row r="4" spans="1:55" s="29" customFormat="1" ht="18.75" customHeight="1">
+    <row r="4" spans="1:54" s="29" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="30"/>
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
@@ -2120,7 +1698,7 @@
       <c r="BA4" s="48"/>
       <c r="BB4" s="51"/>
     </row>
-    <row r="5" spans="1:55" s="24" customFormat="1" ht="12" customHeight="1" thickBot="1">
+    <row r="5" spans="1:54" s="24" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52"/>
       <c r="B5" s="53"/>
       <c r="C5" s="53"/>
@@ -2141,12 +1719,12 @@
       <c r="R5" s="14"/>
       <c r="S5" s="15"/>
       <c r="T5" s="16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" s="56"/>
       <c r="V5" s="56"/>
       <c r="W5" s="56" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X5" s="56"/>
       <c r="Y5" s="56"/>
@@ -2162,12 +1740,12 @@
       <c r="AI5" s="58"/>
       <c r="AY5" s="26"/>
     </row>
-    <row r="6" spans="1:55" s="82" customFormat="1" ht="18.75" customHeight="1" thickTop="1">
+    <row r="6" spans="1:54" s="82" customFormat="1" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A6" s="59"/>
       <c r="B6" s="60"/>
       <c r="C6" s="61"/>
       <c r="D6" s="62" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="63"/>
       <c r="F6" s="63"/>
@@ -2177,7 +1755,7 @@
       <c r="J6" s="66"/>
       <c r="K6" s="67"/>
       <c r="L6" s="68" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M6" s="69"/>
       <c r="N6" s="70"/>
@@ -2188,7 +1766,7 @@
       <c r="S6" s="74"/>
       <c r="T6" s="75"/>
       <c r="U6" s="76" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V6" s="77"/>
       <c r="W6" s="77"/>
@@ -2198,7 +1776,7 @@
       <c r="AA6" s="77"/>
       <c r="AB6" s="78"/>
       <c r="AC6" s="79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD6" s="80"/>
       <c r="AE6" s="80"/>
@@ -2207,1082 +1785,177 @@
       <c r="AH6" s="80"/>
       <c r="AI6" s="81"/>
       <c r="AS6" s="82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY6" s="83"/>
     </row>
-    <row r="7" spans="1:55" s="24" customFormat="1" ht="33" customHeight="1">
+    <row r="7" spans="1:54" s="24" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="C7" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="D7" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="85" t="s">
+      <c r="E7" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="86" t="s">
+      <c r="F7" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="86" t="s">
+      <c r="G7" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="85" t="s">
+      <c r="H7" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="87" t="s">
+      <c r="I7" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="87" t="s">
+      <c r="J7" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="88" t="s">
+      <c r="K7" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="89" t="s">
+      <c r="L7" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="90" t="s">
+      <c r="M7" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="91" t="s">
+      <c r="N7" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="92" t="s">
+      <c r="O7" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="93" t="s">
+      <c r="P7" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="P7" s="94" t="s">
+      <c r="Q7" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="Q7" s="95" t="s">
+      <c r="R7" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="94" t="s">
+      <c r="S7" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="S7" s="96" t="s">
+      <c r="T7" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="T7" s="97" t="s">
+      <c r="U7" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="U7" s="98" t="s">
+      <c r="V7" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="W7" s="98" t="s">
+        <v>12</v>
+      </c>
+      <c r="X7" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="V7" s="98" t="s">
-        <v>10</v>
-      </c>
-      <c r="W7" s="98" t="s">
-        <v>13</v>
-      </c>
-      <c r="X7" s="98" t="s">
+      <c r="Y7" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="Y7" s="98" t="s">
+      <c r="Z7" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA7" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB7" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="Z7" s="98" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA7" s="98" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB7" s="99" t="s">
+      <c r="AC7" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="AC7" s="100" t="s">
+      <c r="AD7" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="AD7" s="101" t="s">
+      <c r="AE7" s="102" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF7" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG7" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="AE7" s="102" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF7" s="103" t="s">
+      <c r="AH7" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI7" s="103" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ7" s="104" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK7" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="103" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH7" s="103" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI7" s="103" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ7" s="104" t="s">
+      <c r="AL7" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="AK7" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL7" s="106" t="s">
+      <c r="AM7" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="AM7" s="107" t="s">
+      <c r="AN7" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="AN7" s="107" t="s">
+      <c r="AO7" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="AO7" s="106" t="s">
+      <c r="AP7" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="AP7" s="106" t="s">
+      <c r="AQ7" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="AQ7" s="108" t="s">
+      <c r="AR7" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="AR7" s="109" t="s">
+      <c r="AS7" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="AS7" s="109" t="s">
+      <c r="AT7" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="AT7" s="109" t="s">
+      <c r="AU7" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="AU7" s="109" t="s">
+      <c r="AV7" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="AV7" s="109" t="s">
+      <c r="AW7" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="AW7" s="110" t="s">
+      <c r="AX7" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="AX7" s="109" t="s">
+      <c r="AY7" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="AY7" s="111" t="s">
+      <c r="AZ7" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="AZ7" s="112" t="s">
+      <c r="BA7" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="BA7" s="113" t="s">
+      <c r="BB7" s="114" t="s">
         <v>51</v>
-      </c>
-      <c r="BB7" s="114" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:55" s="29" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A8" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="116" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="117" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="116" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="117" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="117" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="118" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="119">
-        <v>42828</v>
-      </c>
-      <c r="I8" s="119">
-        <v>42916</v>
-      </c>
-      <c r="J8" s="120"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="122">
-        <v>42855</v>
-      </c>
-      <c r="M8" s="123">
-        <v>550000</v>
-      </c>
-      <c r="N8" s="117"/>
-      <c r="O8" s="124"/>
-      <c r="P8" s="125"/>
-      <c r="Q8" s="125"/>
-      <c r="R8" s="126">
-        <f t="shared" ref="R8:R13" si="0">SUM(P8:Q8)</f>
-        <v>0</v>
-      </c>
-      <c r="S8" s="127">
-        <f t="shared" ref="S8:S13" si="1">ROUNDDOWN(P8*1.08,0)+Q8</f>
-        <v>0</v>
-      </c>
-      <c r="T8" s="117"/>
-      <c r="U8" s="128" t="s">
-        <v>56</v>
-      </c>
-      <c r="V8" s="128" t="s">
-        <v>55</v>
-      </c>
-      <c r="W8" s="128" t="s">
-        <v>60</v>
-      </c>
-      <c r="X8" s="128" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y8" s="128" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z8" s="129">
-        <v>42828</v>
-      </c>
-      <c r="AA8" s="129">
-        <v>42916</v>
-      </c>
-      <c r="AB8" s="130"/>
-      <c r="AC8" s="131">
-        <v>42855</v>
-      </c>
-      <c r="AD8" s="123"/>
-      <c r="AE8" s="132"/>
-      <c r="AF8" s="133"/>
-      <c r="AG8" s="133"/>
-      <c r="AH8" s="134">
-        <f t="shared" ref="AH8:AH10" si="2">SUM(AF8:AG8)</f>
-        <v>0</v>
-      </c>
-      <c r="AI8" s="135">
-        <f t="shared" ref="AI8:AI13" si="3">INT(AF8*1.08)+AG8</f>
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="117"/>
-      <c r="AK8" s="117"/>
-      <c r="AL8" s="117"/>
-      <c r="AM8" s="136"/>
-      <c r="AN8" s="136"/>
-      <c r="AO8" s="136"/>
-      <c r="AP8" s="137">
-        <f t="shared" ref="AP8:AP13" si="4">AI8+AK8+AL8+AM8+AN8+AO8</f>
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="122" t="s">
-        <v>63</v>
-      </c>
-      <c r="AR8" s="138" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS8" s="138" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT8" s="138" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU8" s="117"/>
-      <c r="AV8" s="138" t="s">
-        <v>65</v>
-      </c>
-      <c r="AW8" s="117"/>
-      <c r="AX8" s="117"/>
-      <c r="AY8" s="139">
-        <f t="shared" ref="AY8:AY13" si="5">AI8-AW8-AX8</f>
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="117"/>
-      <c r="BA8" s="117">
-        <f t="shared" ref="BA8:BA13" si="6">S8-AI8</f>
-        <v>0</v>
-      </c>
-      <c r="BB8" s="117" t="e">
-        <f t="shared" ref="BB8:BB13" si="7">AI8/S8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BC8" s="117"/>
-    </row>
-    <row r="9" spans="1:55" s="29" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A9" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="116" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="117" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="116" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="117" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="117" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="118" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="119">
-        <v>42828</v>
-      </c>
-      <c r="I9" s="119">
-        <v>42916</v>
-      </c>
-      <c r="J9" s="120"/>
-      <c r="K9" s="121"/>
-      <c r="L9" s="122">
-        <v>42886</v>
-      </c>
-      <c r="M9" s="123">
-        <v>550000</v>
-      </c>
-      <c r="N9" s="117"/>
-      <c r="O9" s="124"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="125"/>
-      <c r="R9" s="126">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="127">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T9" s="117"/>
-      <c r="U9" s="128" t="s">
-        <v>56</v>
-      </c>
-      <c r="V9" s="128" t="s">
-        <v>55</v>
-      </c>
-      <c r="W9" s="128" t="s">
-        <v>60</v>
-      </c>
-      <c r="X9" s="128" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y9" s="128" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z9" s="129">
-        <v>42828</v>
-      </c>
-      <c r="AA9" s="129">
-        <v>42916</v>
-      </c>
-      <c r="AB9" s="130"/>
-      <c r="AC9" s="131">
-        <v>42886</v>
-      </c>
-      <c r="AD9" s="123"/>
-      <c r="AE9" s="132"/>
-      <c r="AF9" s="133"/>
-      <c r="AG9" s="133"/>
-      <c r="AH9" s="134">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AI9" s="135">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="117"/>
-      <c r="AK9" s="117"/>
-      <c r="AL9" s="117"/>
-      <c r="AM9" s="136"/>
-      <c r="AN9" s="136"/>
-      <c r="AO9" s="136"/>
-      <c r="AP9" s="137">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="122" t="s">
-        <v>63</v>
-      </c>
-      <c r="AR9" s="138" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS9" s="138" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT9" s="138" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU9" s="117"/>
-      <c r="AV9" s="138" t="s">
-        <v>65</v>
-      </c>
-      <c r="AW9" s="117"/>
-      <c r="AX9" s="117"/>
-      <c r="AY9" s="139">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="117"/>
-      <c r="BA9" s="117">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BB9" s="117" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BC9" s="117"/>
-    </row>
-    <row r="10" spans="1:55" s="29" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A10" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="116" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="117" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="116" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="117" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="117" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="118" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="119">
-        <v>42828</v>
-      </c>
-      <c r="I10" s="119">
-        <v>42916</v>
-      </c>
-      <c r="J10" s="120"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="122">
-        <v>42916</v>
-      </c>
-      <c r="M10" s="123">
-        <v>550000</v>
-      </c>
-      <c r="N10" s="117"/>
-      <c r="O10" s="124"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="125"/>
-      <c r="R10" s="126">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S10" s="127">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T10" s="117"/>
-      <c r="U10" s="128" t="s">
-        <v>56</v>
-      </c>
-      <c r="V10" s="128" t="s">
-        <v>55</v>
-      </c>
-      <c r="W10" s="128" t="s">
-        <v>60</v>
-      </c>
-      <c r="X10" s="128" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y10" s="128" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z10" s="129">
-        <v>42828</v>
-      </c>
-      <c r="AA10" s="129">
-        <v>42916</v>
-      </c>
-      <c r="AB10" s="130"/>
-      <c r="AC10" s="131">
-        <v>42916</v>
-      </c>
-      <c r="AD10" s="123"/>
-      <c r="AE10" s="132"/>
-      <c r="AF10" s="133"/>
-      <c r="AG10" s="133"/>
-      <c r="AH10" s="134">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AI10" s="135">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="117"/>
-      <c r="AK10" s="117"/>
-      <c r="AL10" s="117"/>
-      <c r="AM10" s="136"/>
-      <c r="AN10" s="136"/>
-      <c r="AO10" s="136"/>
-      <c r="AP10" s="137">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="122" t="s">
-        <v>63</v>
-      </c>
-      <c r="AR10" s="138" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS10" s="138" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT10" s="138" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU10" s="117"/>
-      <c r="AV10" s="138" t="s">
-        <v>65</v>
-      </c>
-      <c r="AW10" s="117"/>
-      <c r="AX10" s="117"/>
-      <c r="AY10" s="139">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AZ10" s="117"/>
-      <c r="BA10" s="117">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BB10" s="117" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BC10" s="117"/>
-    </row>
-    <row r="11" spans="1:55" s="29" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A11" s="115" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="116" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="117" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="117" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="117" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="117" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="118" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="140">
-        <v>42826</v>
-      </c>
-      <c r="I11" s="140">
-        <v>42916</v>
-      </c>
-      <c r="J11" s="141"/>
-      <c r="K11" s="142"/>
-      <c r="L11" s="122">
-        <v>42855</v>
-      </c>
-      <c r="M11" s="123">
-        <v>450000</v>
-      </c>
-      <c r="N11" s="117"/>
-      <c r="O11" s="117"/>
-      <c r="P11" s="136"/>
-      <c r="Q11" s="136"/>
-      <c r="R11" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="127">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T11" s="117"/>
-      <c r="U11" s="117" t="s">
-        <v>70</v>
-      </c>
-      <c r="V11" s="128" t="s">
-        <v>74</v>
-      </c>
-      <c r="W11" s="128" t="s">
-        <v>75</v>
-      </c>
-      <c r="X11" s="128" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y11" s="128" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z11" s="122">
-        <v>42826</v>
-      </c>
-      <c r="AA11" s="122">
-        <v>42916</v>
-      </c>
-      <c r="AB11" s="115" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC11" s="131">
-        <v>42855</v>
-      </c>
-      <c r="AD11" s="123"/>
-      <c r="AE11" s="143"/>
-      <c r="AF11" s="136"/>
-      <c r="AG11" s="136"/>
-      <c r="AH11" s="137">
-        <f t="shared" ref="AH11:AH13" si="8">SUM(AF11:AG11)</f>
-        <v>0</v>
-      </c>
-      <c r="AI11" s="135">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="117"/>
-      <c r="AK11" s="117"/>
-      <c r="AL11" s="117"/>
-      <c r="AM11" s="136"/>
-      <c r="AN11" s="136"/>
-      <c r="AO11" s="136"/>
-      <c r="AP11" s="137">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="122" t="s">
-        <v>77</v>
-      </c>
-      <c r="AR11" s="138" t="str">
-        <f t="shared" ref="AR11:AR13" si="9">IF(AQ11="翌々月1日","*"," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AS11" s="138" t="str">
-        <f t="shared" ref="AS11:AS13" si="10">IF(AQ11="翌月25日","*"," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AT11" s="138" t="str">
-        <f t="shared" ref="AT11:AT13" si="11">IF(AQ11="翌々月15日","*"," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AU11" s="117"/>
-      <c r="AV11" s="138" t="str">
-        <f t="shared" ref="AV11:AV13" si="12">IF(OR(W11="正",W11="契"),"*"," ")</f>
-        <v>*</v>
-      </c>
-      <c r="AW11" s="117"/>
-      <c r="AX11" s="117"/>
-      <c r="AY11" s="139">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AZ11" s="117"/>
-      <c r="BA11" s="117">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BB11" s="117" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:55" s="29" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A12" s="115" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="116" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="117" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="117" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="117" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="117" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="118" t="s">
-        <v>73</v>
-      </c>
-      <c r="H12" s="140">
-        <v>42826</v>
-      </c>
-      <c r="I12" s="140">
-        <v>42916</v>
-      </c>
-      <c r="J12" s="141"/>
-      <c r="K12" s="142"/>
-      <c r="L12" s="122">
-        <v>42886</v>
-      </c>
-      <c r="M12" s="123">
-        <v>450000</v>
-      </c>
-      <c r="N12" s="117"/>
-      <c r="O12" s="117"/>
-      <c r="P12" s="136"/>
-      <c r="Q12" s="136"/>
-      <c r="R12" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="127">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T12" s="117"/>
-      <c r="U12" s="117" t="s">
-        <v>70</v>
-      </c>
-      <c r="V12" s="128" t="s">
-        <v>74</v>
-      </c>
-      <c r="W12" s="128" t="s">
-        <v>75</v>
-      </c>
-      <c r="X12" s="128" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y12" s="128" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z12" s="122">
-        <v>42826</v>
-      </c>
-      <c r="AA12" s="122">
-        <v>42916</v>
-      </c>
-      <c r="AB12" s="115" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC12" s="131">
-        <v>42886</v>
-      </c>
-      <c r="AD12" s="123"/>
-      <c r="AE12" s="143"/>
-      <c r="AF12" s="136"/>
-      <c r="AG12" s="136"/>
-      <c r="AH12" s="137">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AI12" s="135">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="117"/>
-      <c r="AK12" s="117"/>
-      <c r="AL12" s="117"/>
-      <c r="AM12" s="136"/>
-      <c r="AN12" s="136"/>
-      <c r="AO12" s="136"/>
-      <c r="AP12" s="137">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="122" t="s">
-        <v>77</v>
-      </c>
-      <c r="AR12" s="138" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AS12" s="138" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AT12" s="138" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AU12" s="117"/>
-      <c r="AV12" s="138" t="str">
-        <f t="shared" si="12"/>
-        <v>*</v>
-      </c>
-      <c r="AW12" s="117"/>
-      <c r="AX12" s="117"/>
-      <c r="AY12" s="139">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AZ12" s="117"/>
-      <c r="BA12" s="117">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BB12" s="117" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:55" s="29" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A13" s="115" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="116" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="117" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="117" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="117" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="117" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="118" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="140">
-        <v>42826</v>
-      </c>
-      <c r="I13" s="140">
-        <v>42916</v>
-      </c>
-      <c r="J13" s="141"/>
-      <c r="K13" s="142"/>
-      <c r="L13" s="122">
-        <v>42916</v>
-      </c>
-      <c r="M13" s="123">
-        <v>450000</v>
-      </c>
-      <c r="N13" s="117"/>
-      <c r="O13" s="117"/>
-      <c r="P13" s="136"/>
-      <c r="Q13" s="136"/>
-      <c r="R13" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="127">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T13" s="117"/>
-      <c r="U13" s="117" t="s">
-        <v>70</v>
-      </c>
-      <c r="V13" s="128" t="s">
-        <v>74</v>
-      </c>
-      <c r="W13" s="128" t="s">
-        <v>75</v>
-      </c>
-      <c r="X13" s="128" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y13" s="128" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z13" s="122">
-        <v>42826</v>
-      </c>
-      <c r="AA13" s="122">
-        <v>42916</v>
-      </c>
-      <c r="AB13" s="115" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC13" s="131">
-        <v>42916</v>
-      </c>
-      <c r="AD13" s="123"/>
-      <c r="AE13" s="143"/>
-      <c r="AF13" s="136"/>
-      <c r="AG13" s="136"/>
-      <c r="AH13" s="137">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AI13" s="135">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="117"/>
-      <c r="AK13" s="117"/>
-      <c r="AL13" s="117"/>
-      <c r="AM13" s="136"/>
-      <c r="AN13" s="136"/>
-      <c r="AO13" s="136"/>
-      <c r="AP13" s="137">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="122" t="s">
-        <v>77</v>
-      </c>
-      <c r="AR13" s="138" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AS13" s="138" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AT13" s="138" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AU13" s="117"/>
-      <c r="AV13" s="138" t="str">
-        <f t="shared" si="12"/>
-        <v>*</v>
-      </c>
-      <c r="AW13" s="117"/>
-      <c r="AX13" s="117"/>
-      <c r="AY13" s="139">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AZ13" s="117"/>
-      <c r="BA13" s="117">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BB13" s="117" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <conditionalFormatting sqref="H11:K11">
-    <cfRule type="expression" dxfId="22" priority="17" stopIfTrue="1">
-      <formula>$G11:$K11&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O11:R11">
-    <cfRule type="expression" dxfId="21" priority="18" stopIfTrue="1">
-      <formula>$S11&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z11:AB11">
-    <cfRule type="expression" dxfId="20" priority="19" stopIfTrue="1">
-      <formula>$Z11&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U11">
-    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
-      <formula>$U11&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE11:AH11">
-    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
-      <formula>$AI11&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY11">
-    <cfRule type="expression" dxfId="17" priority="22" stopIfTrue="1">
-      <formula>$AY11&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="16" priority="23" stopIfTrue="1">
-      <formula>$D11&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12:K12">
-    <cfRule type="expression" dxfId="15" priority="10" stopIfTrue="1">
-      <formula>$G12:$K12&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O12:R12">
-    <cfRule type="expression" dxfId="14" priority="11" stopIfTrue="1">
-      <formula>$S12&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z12:AA12">
-    <cfRule type="expression" dxfId="13" priority="12" stopIfTrue="1">
-      <formula>$Z12&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U12">
-    <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
-      <formula>$U12&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE12:AH12">
-    <cfRule type="expression" dxfId="11" priority="14" stopIfTrue="1">
-      <formula>$AI12&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY12">
-    <cfRule type="expression" dxfId="10" priority="15" stopIfTrue="1">
-      <formula>$AY12&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="9" priority="16" stopIfTrue="1">
-      <formula>$D12&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13:K13">
-    <cfRule type="expression" dxfId="8" priority="3" stopIfTrue="1">
-      <formula>$G13:$K13&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O13:R13">
-    <cfRule type="expression" dxfId="7" priority="4" stopIfTrue="1">
-      <formula>$S13&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z13:AA13">
-    <cfRule type="expression" dxfId="6" priority="5" stopIfTrue="1">
-      <formula>$Z13&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U13">
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
-      <formula>$U13&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE13:AH13">
-    <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
-      <formula>$AI13&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY13">
-    <cfRule type="expression" dxfId="3" priority="8" stopIfTrue="1">
-      <formula>$AY13&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="2" priority="9" stopIfTrue="1">
-      <formula>$D13&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB12">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>$Z12&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB13">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>$Z13&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/excel/contrcat_10300.xlsx
+++ b/excel/contrcat_10300.xlsx
@@ -27,7 +27,7 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>d</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>※契約形態・・・個人事業主⇒個、協力会社⇒協、正社員⇒正、契約社員⇒契</t>
@@ -70,63 +70,63 @@
     <rPh sb="34" eb="35">
       <t>チギリ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>受注</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>売掛</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>発注</t>
     <rPh sb="0" eb="2">
       <t>ハッチュウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>支払</t>
     <rPh sb="0" eb="2">
       <t>シハライ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>支払日</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>契約NO．</t>
     <rPh sb="0" eb="2">
       <t>ケイヤク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>HAL
 No.</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ﾌﾘｶﾞﾅ</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>エンジニア名</t>
     <rPh sb="5" eb="6">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>得意先</t>
     <rPh sb="0" eb="3">
       <t>トクイサキ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>契約形態</t>
@@ -136,35 +136,35 @@
     <rPh sb="2" eb="4">
       <t>ケイタイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>件名</t>
     <rPh sb="0" eb="2">
       <t>ケンメイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
       <t>カイシビ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>終了日</t>
     <rPh sb="0" eb="3">
       <t>シュウリョウビ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>見積書No.</t>
     <rPh sb="0" eb="3">
       <t>ミツモリショ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>注文書／契約書No.</t>
@@ -174,7 +174,7 @@
     <rPh sb="4" eb="7">
       <t>ケイヤクショ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>売上日</t>
@@ -184,7 +184,7 @@
     <rPh sb="2" eb="3">
       <t>ビ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>売上
@@ -199,7 +199,7 @@
     <rPh sb="6" eb="8">
       <t>キンガク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>作業
@@ -217,7 +217,7 @@
     <rPh sb="8" eb="9">
       <t>ヒョウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>実働
@@ -228,7 +228,7 @@
     <rPh sb="3" eb="5">
       <t>ジカン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>実績
@@ -239,14 +239,14 @@
     <rPh sb="3" eb="5">
       <t>キンガク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>諸経費</t>
     <rPh sb="0" eb="3">
       <t>ショケイヒ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>計
@@ -263,7 +263,7 @@
     <rPh sb="8" eb="11">
       <t>ショケイヒ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>計
@@ -274,7 +274,7 @@
     <rPh sb="3" eb="5">
       <t>ゼイコ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>請求書
@@ -285,7 +285,7 @@
     <rPh sb="4" eb="6">
       <t>ハッコウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>仕入先</t>
@@ -295,7 +295,7 @@
     <rPh sb="2" eb="3">
       <t>サキ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>社保適応</t>
@@ -308,14 +308,14 @@
     <rPh sb="2" eb="4">
       <t>テキオウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>消費税</t>
     <rPh sb="0" eb="3">
       <t>ショウヒゼイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>注文書発行No.</t>
@@ -325,7 +325,7 @@
     <rPh sb="3" eb="5">
       <t>ハッコウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>検収日</t>
@@ -335,7 +335,7 @@
     <rPh sb="2" eb="3">
       <t>ビ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>支払
@@ -350,7 +350,7 @@
     <rPh sb="6" eb="8">
       <t>キンガク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>面談交通費/正社員通勤費</t>
@@ -369,7 +369,7 @@
     <rPh sb="11" eb="12">
       <t>ヒ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>請求書
@@ -380,14 +380,14 @@
     <rPh sb="4" eb="6">
       <t>ジュリ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>その他</t>
     <rPh sb="2" eb="3">
       <t>タ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>前払い済</t>
@@ -397,28 +397,28 @@
     <rPh sb="3" eb="4">
       <t>スミ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>前払い</t>
     <rPh sb="0" eb="2">
       <t>マエバラ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>手数料</t>
     <rPh sb="0" eb="3">
       <t>テスウリョウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>計</t>
     <rPh sb="0" eb="1">
       <t>ケイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>支払い日</t>
@@ -428,7 +428,7 @@
     <rPh sb="3" eb="4">
       <t>ビ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>翌々月
@@ -446,7 +446,7 @@
     <rPh sb="7" eb="9">
       <t>ヨテイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>翌月
@@ -461,7 +461,7 @@
     <rPh sb="7" eb="9">
       <t>ヨテイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>翌々月
@@ -479,7 +479,7 @@
     <rPh sb="8" eb="10">
       <t>ヨテイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>その他
@@ -490,7 +490,7 @@
     <rPh sb="4" eb="6">
       <t>ヨテイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>給与振込予定</t>
@@ -503,7 +503,7 @@
     <rPh sb="4" eb="6">
       <t>ヨテイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>振込処理金額①</t>
@@ -516,7 +516,7 @@
     <rPh sb="4" eb="6">
       <t>キンガク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>振込処理金額②</t>
@@ -529,14 +529,14 @@
     <rPh sb="4" eb="6">
       <t>キンガク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>差額</t>
     <rPh sb="0" eb="2">
       <t>サガク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>実働時間の差</t>
@@ -549,7 +549,7 @@
     <rPh sb="5" eb="6">
       <t>サ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>粗利</t>
@@ -559,7 +559,7 @@
     <rPh sb="1" eb="2">
       <t>リ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>粗利率</t>
@@ -572,7 +572,7 @@
     <rPh sb="2" eb="3">
       <t>リツ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>年度台帳</t>
@@ -582,7 +582,7 @@
     <rPh sb="2" eb="4">
       <t>ダイチョウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -595,7 +595,7 @@
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="m/d"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -611,13 +611,6 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="HG丸ｺﾞｼｯｸM-PRO"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="6"/>
@@ -647,6 +640,20 @@
     <font>
       <sz val="9"/>
       <color indexed="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -878,301 +885,302 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="38" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="1" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="6" fontId="0" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="6" fontId="1" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="57" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="6" fontId="0" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="6" fontId="1" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="5" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="4" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="5" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="4" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="5" fillId="4" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="4" fillId="4" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="57" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="57" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="5" fillId="6" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="4" fillId="6" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="6" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="57" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="6" fontId="8" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1494,467 +1502,470 @@
   <dimension ref="A1:BB7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="113"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="29" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:54" s="92" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="23"/>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="23"/>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="24"/>
-      <c r="AR1" s="24"/>
-      <c r="AS1" s="24"/>
-      <c r="AT1" s="24"/>
-      <c r="AU1" s="24"/>
-      <c r="AV1" s="24"/>
-      <c r="AW1" s="25"/>
-      <c r="AX1" s="24"/>
-      <c r="AY1" s="26"/>
-      <c r="AZ1" s="27"/>
-      <c r="BA1" s="25"/>
-      <c r="BB1" s="28"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="18"/>
+      <c r="AP1" s="18"/>
+      <c r="AQ1" s="18"/>
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="18"/>
+      <c r="AT1" s="18"/>
+      <c r="AU1" s="18"/>
+      <c r="AV1" s="18"/>
+      <c r="AW1" s="19"/>
+      <c r="AX1" s="18"/>
+      <c r="AY1" s="20"/>
+      <c r="AZ1" s="21"/>
+      <c r="BA1" s="19"/>
+      <c r="BB1" s="22"/>
     </row>
-    <row r="2" spans="1:54" s="29" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="47"/>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="47"/>
-      <c r="AM2" s="47"/>
-      <c r="AN2" s="47"/>
-      <c r="AW2" s="48"/>
-      <c r="AY2" s="49"/>
-      <c r="AZ2" s="50"/>
-      <c r="BA2" s="48"/>
-      <c r="BB2" s="51"/>
+    <row r="2" spans="1:54" s="92" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="93"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="95"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="103"/>
+      <c r="X2" s="103"/>
+      <c r="Y2" s="103"/>
+      <c r="Z2" s="103"/>
+      <c r="AA2" s="103"/>
+      <c r="AB2" s="104"/>
+      <c r="AC2" s="105"/>
+      <c r="AD2" s="95"/>
+      <c r="AE2" s="106"/>
+      <c r="AF2" s="107"/>
+      <c r="AG2" s="107"/>
+      <c r="AH2" s="107"/>
+      <c r="AI2" s="107"/>
+      <c r="AJ2" s="108"/>
+      <c r="AK2" s="108"/>
+      <c r="AL2" s="108"/>
+      <c r="AM2" s="108"/>
+      <c r="AN2" s="108"/>
+      <c r="AW2" s="109"/>
+      <c r="AY2" s="110"/>
+      <c r="AZ2" s="111"/>
+      <c r="BA2" s="109"/>
+      <c r="BB2" s="112"/>
     </row>
-    <row r="3" spans="1:54" s="29" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="30"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="46"/>
-      <c r="AJ3" s="47"/>
-      <c r="AK3" s="47"/>
-      <c r="AL3" s="47"/>
-      <c r="AM3" s="47"/>
-      <c r="AN3" s="47"/>
-      <c r="AW3" s="48"/>
-      <c r="AY3" s="49"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="48"/>
-      <c r="BB3" s="51"/>
+    <row r="3" spans="1:54" s="92" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="93"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="95"/>
+      <c r="U3" s="103"/>
+      <c r="V3" s="103"/>
+      <c r="W3" s="103"/>
+      <c r="X3" s="103"/>
+      <c r="Y3" s="103"/>
+      <c r="Z3" s="103"/>
+      <c r="AA3" s="103"/>
+      <c r="AB3" s="104"/>
+      <c r="AC3" s="105"/>
+      <c r="AD3" s="95"/>
+      <c r="AE3" s="106"/>
+      <c r="AF3" s="107"/>
+      <c r="AG3" s="107"/>
+      <c r="AH3" s="107"/>
+      <c r="AI3" s="107"/>
+      <c r="AJ3" s="108"/>
+      <c r="AK3" s="108"/>
+      <c r="AL3" s="108"/>
+      <c r="AM3" s="108"/>
+      <c r="AN3" s="108"/>
+      <c r="AW3" s="109"/>
+      <c r="AY3" s="110"/>
+      <c r="AZ3" s="111"/>
+      <c r="BA3" s="109"/>
+      <c r="BB3" s="112"/>
     </row>
-    <row r="4" spans="1:54" s="29" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="45"/>
-      <c r="AG4" s="45"/>
-      <c r="AH4" s="45"/>
-      <c r="AI4" s="46"/>
-      <c r="AJ4" s="47"/>
-      <c r="AK4" s="47"/>
-      <c r="AL4" s="47"/>
-      <c r="AM4" s="47"/>
-      <c r="AN4" s="47"/>
-      <c r="AW4" s="48"/>
-      <c r="AY4" s="49"/>
-      <c r="AZ4" s="50"/>
-      <c r="BA4" s="48"/>
-      <c r="BB4" s="51"/>
+    <row r="4" spans="1:54" s="92" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="100"/>
+      <c r="S4" s="102"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="103"/>
+      <c r="V4" s="103"/>
+      <c r="W4" s="103"/>
+      <c r="X4" s="103"/>
+      <c r="Y4" s="103"/>
+      <c r="Z4" s="103"/>
+      <c r="AA4" s="103"/>
+      <c r="AB4" s="104"/>
+      <c r="AC4" s="105"/>
+      <c r="AD4" s="95"/>
+      <c r="AE4" s="106"/>
+      <c r="AF4" s="107"/>
+      <c r="AG4" s="107"/>
+      <c r="AH4" s="107"/>
+      <c r="AI4" s="107"/>
+      <c r="AJ4" s="108"/>
+      <c r="AK4" s="108"/>
+      <c r="AL4" s="108"/>
+      <c r="AM4" s="108"/>
+      <c r="AN4" s="108"/>
+      <c r="AW4" s="109"/>
+      <c r="AY4" s="110"/>
+      <c r="AZ4" s="111"/>
+      <c r="BA4" s="109"/>
+      <c r="BB4" s="112"/>
     </row>
-    <row r="5" spans="1:54" s="24" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="16" t="s">
+    <row r="5" spans="1:54" s="18" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56" t="s">
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="57"/>
-      <c r="AD5" s="57"/>
-      <c r="AE5" s="58"/>
-      <c r="AF5" s="58"/>
-      <c r="AG5" s="58"/>
-      <c r="AH5" s="58"/>
-      <c r="AI5" s="58"/>
-      <c r="AY5" s="26"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="28"/>
+      <c r="AD5" s="28"/>
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="29"/>
+      <c r="AG5" s="29"/>
+      <c r="AH5" s="29"/>
+      <c r="AI5" s="29"/>
+      <c r="AY5" s="20"/>
     </row>
-    <row r="6" spans="1:54" s="82" customFormat="1" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="59"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="62" t="s">
+    <row r="6" spans="1:54" s="53" customFormat="1" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="30"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="68" t="s">
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="69"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="74"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="76" t="s">
+      <c r="M6" s="40"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="V6" s="77"/>
-      <c r="W6" s="77"/>
-      <c r="X6" s="77"/>
-      <c r="Y6" s="77"/>
-      <c r="Z6" s="77"/>
-      <c r="AA6" s="77"/>
-      <c r="AB6" s="78"/>
-      <c r="AC6" s="79" t="s">
+      <c r="V6" s="48"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="48"/>
+      <c r="AB6" s="49"/>
+      <c r="AC6" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AD6" s="80"/>
-      <c r="AE6" s="80"/>
-      <c r="AF6" s="80"/>
-      <c r="AG6" s="80"/>
-      <c r="AH6" s="80"/>
-      <c r="AI6" s="81"/>
-      <c r="AS6" s="82" t="s">
+      <c r="AD6" s="51"/>
+      <c r="AE6" s="51"/>
+      <c r="AF6" s="51"/>
+      <c r="AG6" s="51"/>
+      <c r="AH6" s="51"/>
+      <c r="AI6" s="52"/>
+      <c r="AS6" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="AY6" s="83"/>
+      <c r="AY6" s="54"/>
     </row>
-    <row r="7" spans="1:54" s="24" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="84" t="s">
+    <row r="7" spans="1:54" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="86" t="s">
+      <c r="E7" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="86" t="s">
+      <c r="F7" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="85" t="s">
+      <c r="G7" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="87" t="s">
+      <c r="H7" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="87" t="s">
+      <c r="I7" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="88" t="s">
+      <c r="J7" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="89" t="s">
+      <c r="K7" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="90" t="s">
+      <c r="L7" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="91" t="s">
+      <c r="M7" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="92" t="s">
+      <c r="N7" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="93" t="s">
+      <c r="O7" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="94" t="s">
+      <c r="P7" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="95" t="s">
+      <c r="Q7" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="94" t="s">
+      <c r="R7" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="S7" s="96" t="s">
+      <c r="S7" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="T7" s="97" t="s">
+      <c r="T7" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="U7" s="98" t="s">
+      <c r="U7" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="V7" s="98" t="s">
+      <c r="V7" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="W7" s="98" t="s">
+      <c r="W7" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="X7" s="98" t="s">
+      <c r="X7" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="Y7" s="98" t="s">
+      <c r="Y7" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="Z7" s="98" t="s">
+      <c r="Z7" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="AA7" s="98" t="s">
+      <c r="AA7" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="AB7" s="99" t="s">
+      <c r="AB7" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="AC7" s="100" t="s">
+      <c r="AC7" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="AD7" s="101" t="s">
+      <c r="AD7" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="AE7" s="102" t="s">
+      <c r="AE7" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="AF7" s="103" t="s">
+      <c r="AF7" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="AG7" s="103" t="s">
+      <c r="AG7" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="AH7" s="103" t="s">
+      <c r="AH7" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="AI7" s="103" t="s">
+      <c r="AI7" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="AJ7" s="104" t="s">
+      <c r="AJ7" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="AK7" s="105" t="s">
+      <c r="AK7" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="AL7" s="106" t="s">
+      <c r="AL7" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="AM7" s="107" t="s">
+      <c r="AM7" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="AN7" s="107" t="s">
+      <c r="AN7" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="AO7" s="106" t="s">
+      <c r="AO7" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="AP7" s="106" t="s">
+      <c r="AP7" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="AQ7" s="108" t="s">
+      <c r="AQ7" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="AR7" s="109" t="s">
+      <c r="AR7" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="AS7" s="109" t="s">
+      <c r="AS7" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="AT7" s="109" t="s">
+      <c r="AT7" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="AU7" s="109" t="s">
+      <c r="AU7" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="AV7" s="109" t="s">
+      <c r="AV7" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="AW7" s="110" t="s">
+      <c r="AW7" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="AX7" s="109" t="s">
+      <c r="AX7" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="AY7" s="111" t="s">
+      <c r="AY7" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="AZ7" s="112" t="s">
+      <c r="AZ7" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="BA7" s="113" t="s">
+      <c r="BA7" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="BB7" s="114" t="s">
+      <c r="BB7" s="85" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
